--- a/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01C291-C398-4294-836D-0D78EA94F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="508">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1553,12 +1554,18 @@
   </si>
   <si>
     <t>UT(0-2-40)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>9/13,14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2475,7 +2482,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2525,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2589,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2649,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2715,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2778,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2876,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2935,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3000,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3043,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3118,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3304,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3370,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3428,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3494,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3550,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3625,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3668,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3734,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3790,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3881,7 +3888,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3951,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +4000,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4010,26 +4017,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K726" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K726"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K730" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4041,13 +4048,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4056,14 +4063,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4367,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4377,7 +4384,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4385,34 +4392,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K726"/>
+  <dimension ref="A2:K730"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A683" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A707" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E692" sqref="E692"/>
+      <selection pane="bottomLeft" activeCell="E714" sqref="E714"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4435,7 +4442,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4455,7 +4462,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4477,7 +4484,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4485,7 +4492,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4498,7 +4505,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4515,7 +4522,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4559,7 +4566,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-4.2020000000001652</v>
+        <v>1.5479999999998348</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4569,12 +4576,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.2789999999999999</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4596,7 +4603,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4620,7 +4627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4640,7 +4647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -4662,7 +4669,7 @@
         <v>35797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -4684,7 +4691,7 @@
         <v>35804</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4713,7 +4720,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4735,7 +4742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -4752,7 +4759,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>35855</v>
@@ -4779,7 +4786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -4796,7 +4803,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>35886</v>
@@ -4821,7 +4828,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>59</v>
@@ -4840,7 +4847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35916</v>
@@ -4865,7 +4872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -4884,7 +4891,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4901,7 +4908,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A22,1)</f>
         <v>35947</v>
@@ -4928,7 +4935,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>49</v>
@@ -4947,7 +4954,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>49</v>
@@ -4966,7 +4973,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -4985,7 +4992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -5002,7 +5009,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A25,1)</f>
         <v>35977</v>
@@ -5029,7 +5036,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>63</v>
@@ -5048,7 +5055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>49</v>
@@ -5067,7 +5074,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>68</v>
@@ -5084,7 +5091,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36008</v>
@@ -5111,7 +5118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -5132,7 +5139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -5151,7 +5158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>74</v>
@@ -5168,7 +5175,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A34,1)</f>
         <v>36039</v>
@@ -5195,7 +5202,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -5214,7 +5221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -5231,7 +5238,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>36069</v>
@@ -5258,7 +5265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>72</v>
@@ -5277,7 +5284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -5294,7 +5301,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>36100</v>
@@ -5321,7 +5328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -5338,7 +5345,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" ref="A46" si="0">EDATE(A44,1)</f>
         <v>36130</v>
@@ -5365,7 +5372,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>63</v>
@@ -5387,7 +5394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -5409,7 +5416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -5427,7 +5434,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A46,1)</f>
         <v>36161</v>
@@ -5454,7 +5461,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>72</v>
@@ -5473,7 +5480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -5490,7 +5497,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -5517,7 +5524,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5534,7 +5541,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -5551,7 +5558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -5570,7 +5577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -5587,7 +5594,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A53,1)</f>
         <v>36220</v>
@@ -5614,7 +5621,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>49</v>
@@ -5633,7 +5640,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>50</v>
@@ -5650,7 +5657,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -5669,7 +5676,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>92</v>
@@ -5686,7 +5693,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5711,7 +5718,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -5730,7 +5737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>49</v>
@@ -5749,7 +5756,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36281</v>
@@ -5776,7 +5783,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -5795,7 +5802,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>49</v>
@@ -5814,7 +5821,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5833,7 +5840,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>148</v>
@@ -5850,7 +5857,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A66,1)</f>
         <v>36312</v>
@@ -5877,7 +5884,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -5896,7 +5903,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -5915,7 +5922,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5932,7 +5939,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A71,1)</f>
         <v>36342</v>
@@ -5959,7 +5966,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>49</v>
@@ -5978,7 +5985,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -5997,7 +6004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36373</v>
@@ -6024,7 +6031,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>99</v>
@@ -6041,7 +6048,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36404</v>
@@ -6070,7 +6077,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -6089,7 +6096,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -6108,7 +6115,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -6127,7 +6134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>49</v>
@@ -6146,7 +6153,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>72</v>
@@ -6165,7 +6172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -6184,7 +6191,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>102</v>
@@ -6201,7 +6208,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -6228,7 +6235,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -6247,7 +6254,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>49</v>
@@ -6266,7 +6273,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>74</v>
@@ -6283,7 +6290,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A88,1)</f>
         <v>36465</v>
@@ -6312,7 +6319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6331,7 +6338,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -6348,7 +6355,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95" si="1">EDATE(A92,1)</f>
         <v>36495</v>
@@ -6375,7 +6382,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -6394,7 +6401,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -6415,7 +6422,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6434,7 +6441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6453,7 +6460,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>109</v>
@@ -6470,7 +6477,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>98</v>
       </c>
@@ -6488,7 +6495,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A95,1)</f>
         <v>36526</v>
@@ -6515,7 +6522,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -6536,7 +6543,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6556,7 +6563,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -6581,7 +6588,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>63</v>
@@ -6600,7 +6607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>36586</v>
@@ -6627,7 +6634,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>49</v>
@@ -6646,7 +6653,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6665,7 +6672,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>49</v>
@@ -6684,7 +6691,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6701,7 +6708,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>36617</v>
@@ -6728,7 +6735,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -6747,7 +6754,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -6764,7 +6771,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36647</v>
@@ -6793,7 +6800,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -6810,7 +6817,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6827,7 +6834,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>72</v>
@@ -6846,7 +6853,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36678</v>
@@ -6871,7 +6878,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6890,7 +6897,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>63</v>
@@ -6912,7 +6919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>52</v>
@@ -6931,7 +6938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A119,1)</f>
         <v>36708</v>
@@ -6956,7 +6963,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -6975,7 +6982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>36739</v>
@@ -7000,7 +7007,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>49</v>
@@ -7019,7 +7026,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>36770</v>
@@ -7044,7 +7051,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>49</v>
@@ -7063,7 +7070,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>49</v>
@@ -7082,7 +7089,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36800</v>
@@ -7109,7 +7116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>63</v>
@@ -7128,7 +7135,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>49</v>
@@ -7147,7 +7154,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>128</v>
@@ -7164,7 +7171,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" ref="A134" si="2">EDATE(A130,1)</f>
         <v>36831</v>
@@ -7191,7 +7198,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>51</v>
@@ -7212,7 +7219,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -7231,7 +7238,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>129</v>
@@ -7248,7 +7255,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>36861</v>
@@ -7273,7 +7280,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -7295,7 +7302,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>132</v>
       </c>
@@ -7313,7 +7320,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>36892</v>
@@ -7342,7 +7349,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>46</v>
@@ -7359,7 +7366,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -7376,7 +7383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>36923</v>
@@ -7405,7 +7412,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>51</v>
@@ -7426,7 +7433,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -7445,7 +7452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>51</v>
@@ -7464,7 +7471,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>36951</v>
@@ -7491,7 +7498,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>51</v>
@@ -7512,7 +7519,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>103</v>
@@ -7531,7 +7538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>36982</v>
@@ -7552,7 +7559,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" ref="A152" si="3">EDATE(A151,1)</f>
         <v>37012</v>
@@ -7579,7 +7586,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7598,7 +7605,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37043</v>
@@ -7625,7 +7632,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -7646,7 +7653,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37073</v>
@@ -7675,7 +7682,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>51</v>
@@ -7694,7 +7701,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7713,7 +7720,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>37104</v>
@@ -7740,7 +7747,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -7757,7 +7764,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37135</v>
@@ -7784,7 +7791,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7805,7 +7812,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7824,7 +7831,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>37165</v>
@@ -7851,7 +7858,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>51</v>
@@ -7872,7 +7879,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>140</v>
@@ -7889,7 +7896,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37196</v>
@@ -7916,7 +7923,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -7935,7 +7942,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7956,7 +7963,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>87</v>
@@ -7973,7 +7980,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A167,1)</f>
         <v>37226</v>
@@ -8000,7 +8007,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -8019,7 +8026,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -8040,7 +8047,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -8057,7 +8064,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>133</v>
       </c>
@@ -8075,7 +8082,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A171,1)</f>
         <v>37257</v>
@@ -8100,7 +8107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -8119,7 +8126,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>51</v>
@@ -8138,7 +8145,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -8167,7 +8174,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -8184,7 +8191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -8211,7 +8218,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8240,7 +8247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -8259,7 +8266,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>73</v>
@@ -8278,7 +8285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>147</v>
@@ -8295,7 +8302,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37377</v>
@@ -8319,7 +8326,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -8340,7 +8347,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -8357,7 +8364,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>37408</v>
@@ -8384,7 +8391,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>108</v>
@@ -8405,7 +8412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>151</v>
@@ -8422,7 +8429,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>37438</v>
@@ -8447,7 +8454,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>37469</v>
@@ -8474,7 +8481,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8491,7 +8498,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37500</v>
@@ -8518,7 +8525,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>49</v>
@@ -8537,7 +8544,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>37530</v>
@@ -8564,7 +8571,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -8583,7 +8590,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>155</v>
@@ -8600,7 +8607,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" ref="A200" si="4">EDATE(A197,1)</f>
         <v>37561</v>
@@ -8629,7 +8636,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8646,7 +8653,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>37591</v>
@@ -8673,7 +8680,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>158</v>
@@ -8690,7 +8697,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="49"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -8708,7 +8715,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>37622</v>
@@ -8733,7 +8740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>50</v>
@@ -8752,7 +8759,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8769,7 +8776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>49</v>
@@ -8788,7 +8795,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8809,7 +8816,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -8828,7 +8835,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -8845,7 +8852,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>103</v>
@@ -8864,7 +8871,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>162</v>
@@ -8881,7 +8888,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A205,1)</f>
         <v>37653</v>
@@ -8906,7 +8913,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" ref="A215:A228" si="5">EDATE(A214,1)</f>
         <v>37681</v>
@@ -8933,7 +8940,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>103</v>
@@ -8954,7 +8961,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>37712</v>
@@ -8981,7 +8988,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>72</v>
@@ -9000,7 +9007,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>166</v>
@@ -9017,7 +9024,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>37742</v>
@@ -9044,7 +9051,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>51</v>
@@ -9065,7 +9072,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>167</v>
@@ -9082,7 +9089,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>37773</v>
@@ -9107,7 +9114,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -9132,7 +9139,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>72</v>
@@ -9151,7 +9158,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>63</v>
@@ -9170,7 +9177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>37834</v>
@@ -9195,7 +9202,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -9224,7 +9231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -9243,7 +9250,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -9264,7 +9271,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -9283,7 +9290,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>173</v>
@@ -9300,7 +9307,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A228,1)</f>
         <v>37895</v>
@@ -9329,7 +9336,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>174</v>
@@ -9346,7 +9353,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>37926</v>
@@ -9371,7 +9378,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>37956</v>
@@ -9398,7 +9405,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>49</v>
@@ -9420,7 +9427,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>176</v>
@@ -9440,7 +9447,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>177</v>
       </c>
@@ -9458,7 +9465,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>37987</v>
@@ -9485,7 +9492,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -9508,7 +9515,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>179</v>
@@ -9525,7 +9532,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>180</v>
@@ -9542,7 +9549,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A240,1)</f>
         <v>38018</v>
@@ -9567,7 +9574,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>59</v>
@@ -9586,7 +9593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>38047</v>
@@ -9611,7 +9618,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>187</v>
@@ -9630,7 +9637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>38078</v>
@@ -9655,7 +9662,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>59</v>
@@ -9674,7 +9681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>38108</v>
@@ -9699,7 +9706,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>38139</v>
@@ -9726,7 +9733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9745,7 +9752,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>63</v>
@@ -9764,7 +9771,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>63</v>
@@ -9783,7 +9790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>72</v>
@@ -9802,7 +9809,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>192</v>
@@ -9819,7 +9826,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A251,1)</f>
         <v>38169</v>
@@ -9840,7 +9847,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A260" si="6">EDATE(A257,1)</f>
         <v>38200</v>
@@ -9865,7 +9872,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -9890,7 +9897,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -9917,7 +9924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9936,7 +9943,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>195</v>
@@ -9953,7 +9960,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>38292</v>
@@ -9978,7 +9985,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>38322</v>
@@ -10005,7 +10012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>199</v>
@@ -10025,7 +10032,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>200</v>
       </c>
@@ -10043,7 +10050,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>38353</v>
@@ -10070,7 +10077,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>112</v>
@@ -10087,7 +10094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -10104,7 +10111,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>203</v>
@@ -10121,7 +10128,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A267,1)</f>
         <v>38384</v>
@@ -10146,7 +10153,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A283" si="7">EDATE(A271,1)</f>
         <v>38412</v>
@@ -10171,7 +10178,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -10196,7 +10203,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -10221,7 +10228,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -10246,7 +10253,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -10271,7 +10278,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -10296,7 +10303,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>52</v>
@@ -10315,7 +10322,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>38596</v>
@@ -10342,7 +10349,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>211</v>
@@ -10359,7 +10366,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>72</v>
@@ -10378,7 +10385,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>38626</v>
@@ -10403,7 +10410,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -10430,7 +10437,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>213</v>
@@ -10447,7 +10454,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>38687</v>
@@ -10472,7 +10479,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="48" t="s">
         <v>216</v>
       </c>
@@ -10490,7 +10497,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>38718</v>
@@ -10517,7 +10524,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>179</v>
@@ -10534,7 +10541,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -10553,7 +10560,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>219</v>
@@ -10570,7 +10577,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="49"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A287,1)</f>
         <v>38749</v>
@@ -10597,7 +10604,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>220</v>
@@ -10614,7 +10621,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38777</v>
@@ -10641,7 +10648,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>72</v>
@@ -10660,7 +10667,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>222</v>
@@ -10677,7 +10684,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>63</v>
@@ -10696,7 +10703,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>72</v>
@@ -10717,7 +10724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A293,1)</f>
         <v>38808</v>
@@ -10744,7 +10751,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>224</v>
@@ -10761,7 +10768,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>38838</v>
@@ -10790,7 +10797,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10807,7 +10814,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>227</v>
@@ -10824,7 +10831,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>38869</v>
@@ -10849,7 +10856,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="8">EDATE(A303,1)</f>
         <v>38899</v>
@@ -10876,7 +10883,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>230</v>
@@ -10893,7 +10900,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>38930</v>
@@ -10918,7 +10925,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -10943,7 +10950,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10968,7 +10975,7 @@
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10993,7 +11000,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>39052</v>
@@ -11018,7 +11025,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>217</v>
       </c>
@@ -11036,7 +11043,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39083</v>
@@ -11063,7 +11070,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>49</v>
@@ -11085,7 +11092,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -11105,7 +11112,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>237</v>
@@ -11125,7 +11132,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>39114</v>
@@ -11150,7 +11157,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A336" si="9">EDATE(A316,1)</f>
         <v>39142</v>
@@ -11175,7 +11182,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>49</v>
@@ -11197,7 +11204,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -11217,7 +11224,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>72</v>
@@ -11239,7 +11246,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>241</v>
@@ -11256,7 +11263,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>39173</v>
@@ -11283,7 +11290,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -11304,7 +11311,7 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>243</v>
@@ -11321,7 +11328,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39203</v>
@@ -11346,7 +11353,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -11371,7 +11378,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>103</v>
@@ -11392,7 +11399,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11409,7 +11416,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>39264</v>
@@ -11434,7 +11441,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11453,7 +11460,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>39295</v>
@@ -11480,7 +11487,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11497,7 +11504,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>39326</v>
@@ -11522,7 +11529,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -11547,7 +11554,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>39387</v>
@@ -11572,7 +11579,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11597,7 +11604,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>253</v>
       </c>
@@ -11615,7 +11622,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39448</v>
@@ -11640,7 +11647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>39479</v>
@@ -11665,7 +11672,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>257</v>
@@ -11682,7 +11689,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>39508</v>
@@ -11707,7 +11714,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A356" si="10">EDATE(A341,1)</f>
         <v>39539</v>
@@ -11732,7 +11739,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -11759,7 +11766,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>72</v>
@@ -11778,7 +11785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>63</v>
@@ -11797,7 +11804,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>263</v>
@@ -11814,7 +11821,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A343,1)</f>
         <v>39600</v>
@@ -11841,7 +11848,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>49</v>
@@ -11860,7 +11867,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>265</v>
@@ -11877,7 +11884,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>39630</v>
@@ -11902,7 +11909,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>266</v>
@@ -11919,7 +11926,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>39661</v>
@@ -11944,7 +11951,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>268</v>
@@ -11961,7 +11968,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>39692</v>
@@ -11986,7 +11993,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -12011,7 +12018,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -12038,7 +12045,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12057,7 +12064,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>72</v>
@@ -12076,7 +12083,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>72</v>
@@ -12095,7 +12102,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>272</v>
@@ -12112,7 +12119,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A356,1)</f>
         <v>39783</v>
@@ -12137,7 +12144,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="48" t="s">
         <v>254</v>
       </c>
@@ -12155,7 +12162,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>39814</v>
@@ -12182,7 +12189,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>46</v>
@@ -12199,7 +12206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>275</v>
@@ -12216,7 +12223,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12243,7 +12250,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12262,7 +12269,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -12279,7 +12286,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>277</v>
@@ -12296,7 +12303,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>39873</v>
@@ -12321,7 +12328,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A390" si="11">EDATE(A370,1)</f>
         <v>39904</v>
@@ -12348,7 +12355,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12367,7 +12374,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12384,7 +12391,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>39934</v>
@@ -12409,7 +12416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12426,7 +12433,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>39965</v>
@@ -12453,7 +12460,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>72</v>
@@ -12472,7 +12479,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>284</v>
@@ -12489,7 +12496,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>39995</v>
@@ -12514,7 +12521,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -12539,7 +12546,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -12566,7 +12573,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>287</v>
@@ -12583,7 +12590,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40087</v>
@@ -12610,7 +12617,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -12629,7 +12636,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -12648,7 +12655,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>103</v>
@@ -12669,7 +12676,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>46</v>
@@ -12686,7 +12693,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>289</v>
@@ -12703,7 +12710,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A383,1)</f>
         <v>40118</v>
@@ -12728,7 +12735,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -12757,7 +12764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>293</v>
@@ -12774,7 +12781,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>274</v>
       </c>
@@ -12792,7 +12799,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>40179</v>
@@ -12817,7 +12824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>295</v>
@@ -12834,7 +12841,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>40210</v>
@@ -12861,7 +12868,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>49</v>
@@ -12883,7 +12890,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>46</v>
@@ -12900,7 +12907,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>111</v>
@@ -12917,7 +12924,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40238</v>
@@ -12944,7 +12951,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>72</v>
@@ -12963,7 +12970,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>297</v>
@@ -12980,7 +12987,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>40269</v>
@@ -13005,7 +13012,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A410" si="12">EDATE(A402,1)</f>
         <v>40299</v>
@@ -13030,7 +13037,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -13049,7 +13056,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>40330</v>
@@ -13074,7 +13081,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -13099,7 +13106,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -13126,7 +13133,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>302</v>
@@ -13143,7 +13150,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>40422</v>
@@ -13168,7 +13175,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -13193,7 +13200,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40483</v>
@@ -13220,7 +13227,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>49</v>
@@ -13239,7 +13246,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>49</v>
@@ -13258,7 +13265,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>305</v>
@@ -13275,7 +13282,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>40513</v>
@@ -13302,7 +13309,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>307</v>
@@ -13322,7 +13329,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>308</v>
       </c>
@@ -13340,7 +13347,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>40544</v>
@@ -13367,7 +13374,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>310</v>
@@ -13384,7 +13391,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>40575</v>
@@ -13409,7 +13416,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A435" si="13">EDATE(A420,1)</f>
         <v>40603</v>
@@ -13434,7 +13441,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -13453,7 +13460,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>72</v>
@@ -13472,7 +13479,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>312</v>
@@ -13489,7 +13496,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A421,1)</f>
         <v>40634</v>
@@ -13514,7 +13521,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -13541,7 +13548,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>112</v>
@@ -13558,7 +13565,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>49</v>
@@ -13577,7 +13584,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>315</v>
@@ -13594,7 +13601,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>40695</v>
@@ -13619,7 +13626,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>49</v>
@@ -13641,7 +13648,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40725</v>
@@ -13666,7 +13673,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13685,7 +13692,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>40756</v>
@@ -13710,7 +13717,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -13735,7 +13742,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>72</v>
@@ -13754,7 +13761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40817</v>
@@ -13779,7 +13786,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>49</v>
@@ -13798,7 +13805,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>40848</v>
@@ -13823,7 +13830,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>40878</v>
@@ -13848,7 +13855,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -13870,7 +13877,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>309</v>
       </c>
@@ -13888,7 +13895,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A440,1)</f>
         <v>40909</v>
@@ -13913,7 +13920,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13938,7 +13945,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" ref="A445:A452" si="14">EDATE(A444,1)</f>
         <v>40969</v>
@@ -13963,7 +13970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -13980,7 +13987,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>327</v>
@@ -13997,7 +14004,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41000</v>
@@ -14022,7 +14029,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -14047,7 +14054,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -14072,7 +14079,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -14097,7 +14104,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -14122,7 +14129,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>41153</v>
@@ -14149,7 +14156,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>49</v>
@@ -14168,7 +14175,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14187,7 +14194,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14206,7 +14213,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>335</v>
@@ -14223,7 +14230,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A453,1)</f>
         <v>41183</v>
@@ -14250,7 +14257,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>158</v>
@@ -14267,7 +14274,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A458,1)</f>
         <v>41214</v>
@@ -14290,7 +14297,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14309,7 +14316,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>336</v>
@@ -14326,7 +14333,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41244</v>
@@ -14351,7 +14358,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="48" t="s">
         <v>324</v>
       </c>
@@ -14369,7 +14376,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41275</v>
@@ -14394,7 +14401,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>41306</v>
@@ -14419,7 +14426,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" ref="A467" si="15">EDATE(A466,1)</f>
         <v>41334</v>
@@ -14446,7 +14453,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14465,7 +14472,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14482,7 +14489,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>312</v>
@@ -14499,7 +14506,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A467,1)</f>
         <v>41365</v>
@@ -14524,7 +14531,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>231</v>
@@ -14541,7 +14548,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -14566,7 +14573,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -14585,7 +14592,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14604,7 +14611,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>72</v>
@@ -14623,7 +14630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>344</v>
@@ -14642,7 +14649,7 @@
       </c>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f>EDATE(A473,1)</f>
         <v>41426</v>
@@ -14669,7 +14676,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>49</v>
@@ -14688,7 +14695,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>49</v>
@@ -14707,7 +14714,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>348</v>
@@ -14724,7 +14731,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>41456</v>
@@ -14749,7 +14756,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -14776,7 +14783,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="15" t="s">
         <v>72</v>
@@ -14795,7 +14802,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="15" t="s">
         <v>49</v>
@@ -14814,7 +14821,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="15" t="s">
         <v>49</v>
@@ -14833,7 +14840,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="15" t="s">
         <v>351</v>
@@ -14850,7 +14857,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A483,1)</f>
         <v>41518</v>
@@ -14877,7 +14884,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>55</v>
@@ -14896,7 +14903,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>355</v>
@@ -14913,7 +14920,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A488,1)</f>
         <v>41548</v>
@@ -14940,7 +14947,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>243</v>
@@ -14957,7 +14964,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>41579</v>
@@ -14982,7 +14989,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>41609</v>
@@ -15009,7 +15016,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -15031,7 +15038,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>72</v>
@@ -15053,7 +15060,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>358</v>
@@ -15073,7 +15080,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>339</v>
       </c>
@@ -15091,7 +15098,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>41640</v>
@@ -15118,7 +15125,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>112</v>
@@ -15135,7 +15142,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>361</v>
@@ -15152,7 +15159,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15179,7 +15186,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>46</v>
@@ -15196,7 +15203,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>363</v>
@@ -15213,7 +15220,7 @@
       <c r="J504" s="39"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>41699</v>
@@ -15240,7 +15247,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>364</v>
@@ -15257,7 +15264,7 @@
       <c r="J506" s="39"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15282,7 +15289,7 @@
       <c r="J507" s="39"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A526" si="16">EDATE(A507,1)</f>
         <v>41760</v>
@@ -15309,7 +15316,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -15328,7 +15335,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>72</v>
@@ -15347,7 +15354,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>49</v>
@@ -15366,7 +15373,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15385,7 +15392,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -15404,7 +15411,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>368</v>
@@ -15421,7 +15428,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="49"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f>EDATE(A508,1)</f>
         <v>41791</v>
@@ -15448,7 +15455,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>51</v>
@@ -15469,7 +15476,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>63</v>
@@ -15488,7 +15495,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>367</v>
@@ -15505,7 +15512,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>72</v>
@@ -15526,7 +15533,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A515,1)</f>
         <v>41821</v>
@@ -15551,7 +15558,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>41852</v>
@@ -15580,7 +15587,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15599,7 +15606,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>372</v>
@@ -15616,7 +15623,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A521,1)</f>
         <v>41883</v>
@@ -15641,7 +15648,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15666,7 +15673,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -15697,7 +15704,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -15716,7 +15723,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -15735,7 +15742,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>376</v>
@@ -15752,7 +15759,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A526,1)</f>
         <v>41974</v>
@@ -15777,7 +15784,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="48" t="s">
         <v>360</v>
       </c>
@@ -15795,7 +15802,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42005</v>
@@ -15822,7 +15829,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>49</v>
@@ -15843,7 +15850,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>46</v>
@@ -15860,7 +15867,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>380</v>
@@ -15877,7 +15884,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42036</v>
@@ -15902,7 +15909,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A561" si="17">EDATE(A536,1)</f>
         <v>42064</v>
@@ -15929,7 +15936,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15948,7 +15955,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15967,7 +15974,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>46</v>
@@ -15984,7 +15991,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>384</v>
@@ -16004,7 +16011,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f>EDATE(A537,1)</f>
         <v>42095</v>
@@ -16029,7 +16036,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f>EDATE(A542,1)</f>
         <v>42125</v>
@@ -16056,7 +16063,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16075,7 +16082,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>388</v>
@@ -16092,7 +16099,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f>EDATE(A543,1)</f>
         <v>42156</v>
@@ -16121,7 +16128,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>72</v>
@@ -16140,7 +16147,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -16157,7 +16164,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>49</v>
@@ -16176,7 +16183,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>391</v>
@@ -16193,7 +16200,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f>EDATE(A546,1)</f>
         <v>42186</v>
@@ -16220,7 +16227,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>392</v>
@@ -16237,7 +16244,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>42217</v>
@@ -16266,7 +16273,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>72</v>
@@ -16285,7 +16292,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>393</v>
@@ -16302,7 +16309,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f>EDATE(A553,1)</f>
         <v>42248</v>
@@ -16327,7 +16334,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -16354,7 +16361,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -16373,7 +16380,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>397</v>
@@ -16390,7 +16397,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42309</v>
@@ -16415,7 +16422,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16440,7 +16447,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="48" t="s">
         <v>379</v>
       </c>
@@ -16458,7 +16465,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A561,1)</f>
         <v>42370</v>
@@ -16483,7 +16490,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f>EDATE(A563,1)</f>
         <v>42401</v>
@@ -16508,7 +16515,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A585" si="18">EDATE(A564,1)</f>
         <v>42430</v>
@@ -16533,7 +16540,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -16558,7 +16565,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>388</v>
@@ -16575,7 +16582,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f>EDATE(A566,1)</f>
         <v>42491</v>
@@ -16602,7 +16609,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -16621,7 +16628,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>406</v>
@@ -16638,7 +16645,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <f>EDATE(A568,1)</f>
         <v>42522</v>
@@ -16665,7 +16672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>407</v>
@@ -16682,7 +16689,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>42552</v>
@@ -16709,7 +16716,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>72</v>
@@ -16728,7 +16735,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>416</v>
@@ -16745,7 +16752,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>42583</v>
@@ -16772,7 +16779,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>51</v>
@@ -16791,7 +16798,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>76</v>
@@ -16808,7 +16815,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>42614</v>
@@ -16833,7 +16840,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -16850,7 +16857,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>108</v>
@@ -16871,7 +16878,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>408</v>
@@ -16888,7 +16895,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f>EDATE(A579,1)</f>
         <v>42644</v>
@@ -16913,7 +16920,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -16938,7 +16945,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -16963,7 +16970,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="48" t="s">
         <v>401</v>
       </c>
@@ -16981,7 +16988,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>42736</v>
@@ -17006,7 +17013,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <f>EDATE(A587,1)</f>
         <v>42767</v>
@@ -17031,7 +17038,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>63</v>
@@ -17050,7 +17057,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>42795</v>
@@ -17077,7 +17084,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>49</v>
@@ -17096,7 +17103,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>421</v>
@@ -17113,7 +17120,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17140,7 +17147,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>49</v>
@@ -17159,7 +17166,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>422</v>
@@ -17176,7 +17183,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42856</v>
@@ -17203,7 +17210,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="15" t="s">
         <v>423</v>
@@ -17220,7 +17227,7 @@
       <c r="J597" s="12"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f>EDATE(A596,1)</f>
         <v>42887</v>
@@ -17249,7 +17256,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f t="shared" ref="A599:A606" si="19">EDATE(A598,1)</f>
         <v>42917</v>
@@ -17276,7 +17283,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -17303,7 +17310,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>426</v>
@@ -17320,7 +17327,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A600,1)</f>
         <v>42979</v>
@@ -17347,7 +17354,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>427</v>
@@ -17364,7 +17371,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43009</v>
@@ -17389,7 +17396,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17410,7 +17417,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -17437,7 +17444,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="48" t="s">
         <v>419</v>
       </c>
@@ -17455,7 +17462,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>43101</v>
@@ -17476,7 +17483,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f>EDATE(A608,1)</f>
         <v>43132</v>
@@ -17501,7 +17508,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>112</v>
@@ -17518,7 +17525,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -17543,7 +17550,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>50</v>
@@ -17562,7 +17569,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A611,1)</f>
         <v>43191</v>
@@ -17583,7 +17590,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" ref="A614:A622" si="20">EDATE(A613,1)</f>
         <v>43221</v>
@@ -17610,7 +17617,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>72</v>
@@ -17629,7 +17636,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -17648,7 +17655,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f>EDATE(A614,1)</f>
         <v>43252</v>
@@ -17675,7 +17682,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>437</v>
@@ -17692,7 +17699,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <f>EDATE(A617,1)</f>
         <v>43282</v>
@@ -17719,7 +17726,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>438</v>
@@ -17736,7 +17743,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <f>EDATE(A619,1)</f>
         <v>43313</v>
@@ -17761,7 +17768,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -17788,7 +17795,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>440</v>
@@ -17805,7 +17812,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f>EDATE(A622,1)</f>
         <v>43374</v>
@@ -17828,7 +17835,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="57" t="s">
         <v>442</v>
@@ -17845,7 +17852,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="56"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>43405</v>
@@ -17870,7 +17877,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A626,1)</f>
         <v>43435</v>
@@ -17895,7 +17902,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="48" t="s">
         <v>433</v>
       </c>
@@ -17913,7 +17920,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -17934,7 +17941,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <f>EDATE(A629,1)</f>
         <v>43497</v>
@@ -17959,7 +17966,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f t="shared" ref="A631:A645" si="21">EDATE(A630,1)</f>
         <v>43525</v>
@@ -17984,7 +17991,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -18005,7 +18012,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>43586</v>
@@ -18030,7 +18037,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>72</v>
@@ -18052,7 +18059,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>450</v>
@@ -18072,7 +18079,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43617</v>
@@ -18099,7 +18106,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -18126,7 +18133,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -18148,7 +18155,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <f>EDATE(A637,1)</f>
         <v>43678</v>
@@ -18175,7 +18182,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>49</v>
@@ -18197,7 +18204,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <f>EDATE(A639,1)</f>
         <v>43709</v>
@@ -18224,7 +18231,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>50</v>
@@ -18246,7 +18253,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <f>EDATE(A641,1)</f>
         <v>43739</v>
@@ -18267,7 +18274,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -18288,7 +18295,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -18309,7 +18316,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="48" t="s">
         <v>434</v>
       </c>
@@ -18327,7 +18334,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f>EDATE(A645,1)</f>
         <v>43831</v>
@@ -18354,7 +18361,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>454</v>
@@ -18371,7 +18378,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>179</v>
@@ -18388,7 +18395,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>72</v>
@@ -18407,7 +18414,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43862</v>
@@ -18428,7 +18435,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" ref="A652:A660" si="22">EDATE(A651,1)</f>
         <v>43891</v>
@@ -18449,7 +18456,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -18470,7 +18477,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -18491,7 +18498,7 @@
       <c r="J654" s="12"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -18512,7 +18519,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -18533,7 +18540,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -18554,7 +18561,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -18575,7 +18582,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -18596,7 +18603,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -18623,7 +18630,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>49</v>
@@ -18642,7 +18649,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>49</v>
@@ -18661,7 +18668,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>49</v>
@@ -18680,7 +18687,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>44166</v>
@@ -18705,7 +18712,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="48" t="s">
         <v>453</v>
       </c>
@@ -18723,7 +18730,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>44197</v>
@@ -18748,7 +18755,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <f>EDATE(A666,1)</f>
         <v>44228</v>
@@ -18769,7 +18776,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <f t="shared" ref="A668:A675" si="23">EDATE(A667,1)</f>
         <v>44256</v>
@@ -18790,7 +18797,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -18811,7 +18818,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -18832,7 +18839,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -18853,7 +18860,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -18874,7 +18881,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -18901,7 +18908,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -18922,7 +18929,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -18947,7 +18954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>462</v>
@@ -18966,7 +18973,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>73</v>
@@ -18985,7 +18992,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A675,1)</f>
         <v>44501</v>
@@ -19012,7 +19019,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="58" t="s">
         <v>49</v>
@@ -19031,7 +19038,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44531</v>
@@ -19058,7 +19065,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="48" t="s">
         <v>460</v>
       </c>
@@ -19076,7 +19083,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <f>EDATE(A680,1)</f>
         <v>44562</v>
@@ -19103,7 +19110,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="58" t="s">
         <v>72</v>
@@ -19122,7 +19129,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="58" t="s">
         <v>49</v>
@@ -19141,7 +19148,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <f>EDATE(A682,1)</f>
         <v>44593</v>
@@ -19166,7 +19173,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="58" t="s">
         <v>49</v>
@@ -19185,7 +19192,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <f>EDATE(A685,1)</f>
         <v>44621</v>
@@ -19212,7 +19219,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f t="shared" ref="A688" si="24">EDATE(A687,1)</f>
         <v>44652</v>
@@ -19239,7 +19246,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="58" t="s">
         <v>50</v>
@@ -19258,7 +19265,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="58" t="s">
         <v>505</v>
@@ -19278,7 +19285,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="49"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <f>EDATE(A688,1)</f>
         <v>44682</v>
@@ -19305,7 +19312,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="58" t="s">
         <v>504</v>
@@ -19325,7 +19332,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <f>EDATE(A691,1)</f>
         <v>44713</v>
@@ -19352,7 +19359,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>50</v>
@@ -19371,7 +19378,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>49</v>
@@ -19390,7 +19397,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>49</v>
@@ -19409,7 +19416,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>49</v>
@@ -19428,7 +19435,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>49</v>
@@ -19447,7 +19454,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
         <v>502</v>
@@ -19467,7 +19474,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="49"/>
     </row>
-    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f>EDATE(A693,1)</f>
         <v>44743</v>
@@ -19494,7 +19501,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="58" t="s">
         <v>72</v>
@@ -19513,7 +19520,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="58" t="s">
         <v>49</v>
@@ -19532,34 +19539,34 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f>EDATE(A700,1)</f>
         <v>44774</v>
       </c>
       <c r="B703" s="20" t="s">
-        <v>499</v>
+        <v>72</v>
       </c>
       <c r="C703" s="13">
         <v>1.25</v>
       </c>
-      <c r="D703" s="39">
-        <v>2</v>
-      </c>
+      <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
       <c r="G703" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H703" s="39"/>
+      <c r="H703" s="39">
+        <v>2</v>
+      </c>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
       <c r="K703" s="20" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="58" t="s">
         <v>501</v>
@@ -19579,7 +19586,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <f>EDATE(A703,1)</f>
         <v>44805</v>
@@ -19606,7 +19613,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="58" t="s">
         <v>72</v>
@@ -19625,7 +19632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="58" t="s">
         <v>73</v>
@@ -19644,7 +19651,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="58" t="s">
         <v>118</v>
@@ -19664,7 +19671,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <f>EDATE(A705,1)</f>
         <v>44835</v>
@@ -19691,7 +19698,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="58" t="s">
         <v>497</v>
@@ -19711,7 +19718,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="52"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44866</v>
       </c>
@@ -19735,7 +19742,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="10" t="s">
         <v>50</v>
@@ -19757,7 +19764,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="58" t="s">
         <v>496</v>
@@ -19777,7 +19784,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="52"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>44896</v>
       </c>
@@ -19803,7 +19810,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="48" t="s">
         <v>474</v>
       </c>
@@ -19821,7 +19828,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
         <v>44927</v>
       </c>
@@ -19845,7 +19852,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>44958</v>
       </c>
@@ -19865,7 +19872,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
         <v>44986</v>
       </c>
@@ -19885,7 +19892,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
         <v>45017</v>
       </c>
@@ -19905,7 +19912,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
         <v>45047</v>
       </c>
@@ -19929,20 +19936,22 @@
         <v>492</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
         <v>45078</v>
       </c>
       <c r="B721" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C721" s="13"/>
+      <c r="C721" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
-      <c r="G721" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G721" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H721" s="39">
         <v>1</v>
@@ -19953,7 +19962,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="58" t="s">
         <v>49</v>
@@ -19975,20 +19984,22 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
         <v>45108</v>
       </c>
       <c r="B723" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C723" s="13"/>
+      <c r="C723" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G723" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H723" s="39">
         <v>3</v>
@@ -19999,25 +20010,37 @@
         <v>494</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40"/>
-      <c r="B724" s="58"/>
-      <c r="C724" s="13"/>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A724" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B724" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C724" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D724" s="39"/>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
-      <c r="G724" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H724" s="39"/>
+      <c r="G724" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H724" s="39">
+        <v>1</v>
+      </c>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="20"/>
-    </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K724" s="52">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
-      <c r="B725" s="58"/>
+      <c r="B725" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C725" s="13"/>
       <c r="D725" s="39"/>
       <c r="E725" s="9"/>
@@ -20026,14 +20049,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H725" s="39"/>
+      <c r="H725" s="39">
+        <v>2</v>
+      </c>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
-    </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" s="41"/>
-      <c r="B726" s="10"/>
+      <c r="K725" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A726" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B726" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="C726" s="42"/>
       <c r="D726" s="43"/>
       <c r="E726" s="54"/>
@@ -20042,10 +20073,86 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H726" s="43"/>
+      <c r="H726" s="43">
+        <v>2</v>
+      </c>
       <c r="I726" s="54"/>
       <c r="J726" s="12"/>
-      <c r="K726" s="15"/>
+      <c r="K726" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A727" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B727" s="58"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A728" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B728" s="58"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A729" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B729" s="58"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A730" s="41">
+        <v>45292</v>
+      </c>
+      <c r="B730" s="58"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20061,11 +20168,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20088,22 +20195,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -20120,7 +20227,7 @@
       </c>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -20133,7 +20240,7 @@
       <c r="F2" s="74"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -20148,7 +20255,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="30"/>
@@ -20157,7 +20264,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="31"/>
@@ -20166,12 +20273,12 @@
       <c r="F5" s="8"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -20182,7 +20289,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="60">
         <v>44806</v>
       </c>
@@ -20193,7 +20300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <v>44858</v>
       </c>
@@ -20204,7 +20311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="60">
         <v>44872</v>
       </c>
@@ -20215,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="60">
         <v>44872</v>
       </c>
@@ -20226,7 +20333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="60">
         <v>44881</v>
       </c>
@@ -20237,7 +20344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="60">
         <v>44965</v>
       </c>
@@ -20248,7 +20355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="60">
         <v>44965</v>
       </c>
@@ -20259,7 +20366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="60">
         <v>44971</v>
       </c>
@@ -20270,7 +20377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="60">
         <v>44993</v>
       </c>
@@ -20281,7 +20388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="60">
         <v>44993</v>
       </c>
@@ -20292,7 +20399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="60">
         <v>44993</v>
       </c>
@@ -20303,7 +20410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="60">
         <v>45034</v>
       </c>
@@ -20314,7 +20421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="60">
         <v>44896</v>
       </c>
@@ -20325,7 +20432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="60">
         <v>44866</v>
       </c>
@@ -20336,7 +20443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="60">
         <v>44835</v>
       </c>
@@ -20347,22 +20454,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="60"/>
       <c r="B23" s="35"/>
       <c r="C23" s="61"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="35"/>
       <c r="C24" s="61"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
       <c r="B25" s="35"/>
       <c r="C25" s="61"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="59" t="s">
         <v>485</v>
@@ -20382,10 +20489,10 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20394,7 +20501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20402,21 +20509,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -20429,7 +20536,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20458,7 +20565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.52900000000000003</v>
       </c>
@@ -20488,17 +20595,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20519,7 +20626,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20546,7 +20653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20572,7 +20679,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20598,7 +20705,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20624,7 +20731,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20650,7 +20757,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20676,7 +20783,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20702,7 +20809,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20728,7 +20835,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20748,7 +20855,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20768,7 +20875,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20788,7 +20895,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20809,7 +20916,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20830,7 +20937,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20851,7 +20958,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20872,7 +20979,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20893,7 +21000,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20914,7 +21021,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20935,7 +21042,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20956,7 +21063,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20977,7 +21084,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20998,7 +21105,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21019,7 +21126,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21040,7 +21147,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21061,7 +21168,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21082,7 +21189,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21103,7 +21210,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21124,7 +21231,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21145,7 +21252,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21166,7 +21273,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21187,7 +21294,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21208,7 +21315,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21217,7 +21324,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21226,7 +21333,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21235,7 +21342,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21244,7 +21351,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21253,7 +21360,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21262,7 +21369,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21271,7 +21378,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21280,7 +21387,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21289,7 +21396,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21298,7 +21405,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21307,7 +21414,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21316,7 +21423,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21325,7 +21432,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21334,7 +21441,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21343,7 +21450,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21352,7 +21459,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21361,7 +21468,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21370,7 +21477,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21379,7 +21486,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21388,7 +21495,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21397,7 +21504,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21406,7 +21513,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21415,7 +21522,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21424,7 +21531,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21433,7 +21540,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21442,7 +21549,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21451,7 +21558,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21460,7 +21567,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21469,7 +21576,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="509">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1559,6 +1559,9 @@
   </si>
   <si>
     <t>9/13,14/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2484,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2527,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2591,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2651,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2717,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2780,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2878,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2937,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3002,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3045,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3120,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3306,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3372,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3430,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3496,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3549,7 +3552,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3627,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3670,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3736,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3792,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3890,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +3953,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,8 +4019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K730"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K732"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4395,12 +4398,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K730"/>
+  <dimension ref="A2:K732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A713" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="K728" sqref="K728"/>
+      <selection pane="bottomLeft" activeCell="E728" sqref="E728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4565,7 +4568,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.7979999999998348</v>
+        <v>6.1079999999998371</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4575,7 +4578,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.2789999999999999</v>
+        <v>8.0289999999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20090,13 +20093,15 @@
       <c r="B727" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C727" s="13"/>
+      <c r="C727" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D727" s="39"/>
       <c r="E727" s="9"/>
       <c r="F727" s="20"/>
-      <c r="G727" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G727" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H727" s="39"/>
       <c r="I727" s="9"/>
@@ -20112,13 +20117,15 @@
       <c r="B728" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C728" s="13"/>
+      <c r="C728" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G728" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H728" s="39"/>
       <c r="I728" s="9"/>
@@ -20128,12 +20135,14 @@
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B729" s="58"/>
+      <c r="A729" s="40"/>
+      <c r="B729" s="58" t="s">
+        <v>130</v>
+      </c>
       <c r="C729" s="13"/>
-      <c r="D729" s="39"/>
+      <c r="D729" s="39">
+        <v>0.44</v>
+      </c>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
       <c r="G729" s="13" t="str">
@@ -20143,25 +20152,63 @@
       <c r="H729" s="39"/>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
-      <c r="K729" s="20"/>
+      <c r="K729" s="52"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="41">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B730" s="58"/>
-      <c r="C730" s="13"/>
+      <c r="C730" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D730" s="39"/>
       <c r="E730" s="9"/>
       <c r="F730" s="20"/>
-      <c r="G730" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G730" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H730" s="39"/>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B731" s="58"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="41">
+        <v>45292</v>
+      </c>
+      <c r="B732" s="58"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="39"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20585,14 +20632,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.33300000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1513,9 +1513,6 @@
     <t>4/12-14/2023-SL</t>
   </si>
   <si>
-    <t>5/22,29/2023</t>
-  </si>
-  <si>
     <t>QL(6-0-0)</t>
   </si>
   <si>
@@ -1555,13 +1552,31 @@
     <t>UT(0-2-40)</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>9/13,14/2023</t>
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>8/8,15/2023</t>
+  </si>
+  <si>
+    <t>UT(0-5-11)</t>
+  </si>
+  <si>
+    <t>UT(0-1-41)</t>
+  </si>
+  <si>
+    <t>5/22-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-36)</t>
+  </si>
+  <si>
+    <t>UT(0-2-1)</t>
+  </si>
+  <si>
+    <t>12/13,14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -4019,8 +4034,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K732"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K737"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4398,12 +4413,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K732"/>
+  <dimension ref="A2:K737"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A713" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A728" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E728" sqref="E728"/>
+      <selection pane="bottomLeft" activeCell="E736" sqref="E736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,7 +4583,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.1079999999998371</v>
+        <v>3.0039999999998521</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -19270,7 +19285,7 @@
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C690" s="13"/>
       <c r="D690" s="39">
@@ -19293,7 +19308,7 @@
         <v>44682</v>
       </c>
       <c r="B691" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C691" s="13">
         <v>1.25</v>
@@ -19311,13 +19326,13 @@
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C692" s="13"/>
       <c r="D692" s="39">
@@ -19459,7 +19474,7 @@
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C699" s="13"/>
       <c r="D699" s="39">
@@ -19565,13 +19580,13 @@
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
       <c r="K703" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C704" s="13"/>
       <c r="D704" s="39">
@@ -19703,7 +19718,7 @@
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C710" s="13"/>
       <c r="D710" s="39">
@@ -19769,7 +19784,7 @@
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C713" s="13"/>
       <c r="D713" s="62">
@@ -19809,7 +19824,7 @@
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
       <c r="K714" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
@@ -19855,28 +19870,28 @@
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B717" s="58"/>
-      <c r="C717" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D717" s="39"/>
+      <c r="A717" s="40"/>
+      <c r="B717" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39">
+        <v>0.252</v>
+      </c>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H717" s="39"/>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="20"/>
+      <c r="K717" s="52"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B718" s="58"/>
       <c r="C718" s="13">
@@ -19896,7 +19911,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B719" s="58"/>
       <c r="C719" s="13">
@@ -19916,11 +19931,9 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B720" s="58" t="s">
-        <v>493</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B720" s="58"/>
       <c r="C720" s="13">
         <v>1.25</v>
       </c>
@@ -19934,16 +19947,14 @@
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="20" t="s">
-        <v>492</v>
-      </c>
+      <c r="K720" s="20"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B721" s="58" t="s">
-        <v>49</v>
+        <v>492</v>
       </c>
       <c r="C721" s="13">
         <v>1.25</v>
@@ -19955,43 +19966,39 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H721" s="39">
-        <v>1</v>
-      </c>
+      <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
-      <c r="K721" s="52">
-        <v>45083</v>
+      <c r="K721" s="20" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="58" t="s">
-        <v>49</v>
+        <v>511</v>
       </c>
       <c r="C722" s="13"/>
-      <c r="D722" s="39"/>
+      <c r="D722" s="39">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="E722" s="9"/>
       <c r="F722" s="20"/>
-      <c r="G722" s="42" t="str">
+      <c r="G722" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H722" s="39">
-        <v>1</v>
-      </c>
+      <c r="H722" s="39"/>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
-      <c r="K722" s="52">
-        <v>45100</v>
-      </c>
+      <c r="K722" s="20"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B723" s="58" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C723" s="13">
         <v>1.25</v>
@@ -20004,30 +20011,26 @@
         <v>1.25</v>
       </c>
       <c r="H723" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
-      <c r="K723" s="20" t="s">
-        <v>494</v>
+      <c r="K723" s="52">
+        <v>45083</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A724" s="40"/>
       <c r="B724" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C724" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C724" s="13"/>
       <c r="D724" s="39"/>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
-      <c r="G724" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G724" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H724" s="39">
         <v>1</v>
@@ -20035,139 +20038,137 @@
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
       <c r="K724" s="52">
-        <v>45149</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="58" t="s">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="C725" s="13"/>
-      <c r="D725" s="39"/>
+      <c r="D725" s="39">
+        <v>0.21000000000000002</v>
+      </c>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="42" t="str">
+      <c r="G725" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H725" s="39">
-        <v>2</v>
-      </c>
+      <c r="H725" s="39"/>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20" t="s">
-        <v>506</v>
-      </c>
+      <c r="K725" s="52"/>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" s="41">
-        <v>45170</v>
-      </c>
-      <c r="B726" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C726" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D726" s="43"/>
-      <c r="E726" s="54"/>
-      <c r="F726" s="15"/>
+      <c r="A726" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B726" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C726" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
       <c r="G726" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H726" s="43">
-        <v>2</v>
-      </c>
-      <c r="I726" s="54"/>
-      <c r="J726" s="12"/>
-      <c r="K726" s="15" t="s">
-        <v>507</v>
+      <c r="H726" s="39">
+        <v>3</v>
+      </c>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="41">
-        <v>45200</v>
-      </c>
+      <c r="A727" s="40"/>
       <c r="B727" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C727" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D727" s="39"/>
+        <v>208</v>
+      </c>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="E727" s="9"/>
       <c r="F727" s="20"/>
-      <c r="G727" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H727" s="39"/>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="52">
-        <v>45203</v>
-      </c>
+      <c r="K727" s="20"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="41">
-        <v>45231</v>
+      <c r="A728" s="40">
+        <v>45139</v>
       </c>
       <c r="B728" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C728" s="42">
+        <v>49</v>
+      </c>
+      <c r="C728" s="13">
         <v>1.25</v>
       </c>
       <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H728" s="39"/>
+      <c r="G728" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H728" s="39">
+        <v>1</v>
+      </c>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
       <c r="K728" s="52">
-        <v>45250</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="58" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C729" s="13"/>
-      <c r="D729" s="39">
-        <v>0.44</v>
-      </c>
+      <c r="D729" s="39"/>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
-      <c r="G729" s="13" t="str">
+      <c r="G729" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H729" s="39"/>
+      <c r="H729" s="39">
+        <v>2</v>
+      </c>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
-      <c r="K729" s="52"/>
+      <c r="K729" s="20" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B730" s="58"/>
-      <c r="C730" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D730" s="39"/>
+      <c r="A730" s="40"/>
+      <c r="B730" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39">
+        <v>0.64800000000000002</v>
+      </c>
       <c r="E730" s="9"/>
       <c r="F730" s="20"/>
-      <c r="G730" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H730" s="39"/>
       <c r="I730" s="9"/>
@@ -20175,40 +20176,158 @@
       <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="B731" s="58"/>
-      <c r="C731" s="13"/>
-      <c r="D731" s="39"/>
-      <c r="E731" s="9"/>
-      <c r="F731" s="20"/>
-      <c r="G731" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="39"/>
-      <c r="I731" s="9"/>
-      <c r="J731" s="11"/>
-      <c r="K731" s="20"/>
+      <c r="A731" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B731" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C731" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D731" s="43"/>
+      <c r="E731" s="54"/>
+      <c r="F731" s="15"/>
+      <c r="G731" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H731" s="43">
+        <v>2</v>
+      </c>
+      <c r="I731" s="54"/>
+      <c r="J731" s="12"/>
+      <c r="K731" s="15" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="41">
-        <v>45292</v>
-      </c>
-      <c r="B732" s="58"/>
-      <c r="C732" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B732" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C732" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D732" s="39"/>
       <c r="E732" s="9"/>
       <c r="F732" s="20"/>
-      <c r="G732" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G732" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H732" s="39"/>
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
-      <c r="K732" s="20"/>
+      <c r="K732" s="52">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B733" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C733" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="52">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="40"/>
+      <c r="B734" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39">
+        <v>0.44</v>
+      </c>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="52"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B735" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C735" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D735" s="39">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="B736" s="58"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="41">
+        <v>45292</v>
+      </c>
+      <c r="B737" s="58"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20252,10 +20371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20482,7 +20601,7 @@
         <v>44896</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="61">
         <v>2</v>
@@ -20512,25 +20631,63 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="60">
+        <v>45308</v>
+      </c>
+      <c r="B25" s="60">
+        <v>44932</v>
+      </c>
       <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="59" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60">
+        <v>45012</v>
+      </c>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="61"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="61"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C32" s="64">
         <f>SUM(C8:C22)</f>
         <v>23</v>
       </c>
@@ -20629,17 +20786,17 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.44</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="515">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1577,6 +1577,9 @@
   </si>
   <si>
     <t>12/13,14,15/2023</t>
+  </si>
+  <si>
+    <t>02/13,14/2024</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2502,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2545,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2609,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2669,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2735,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2798,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2896,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2955,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3020,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3063,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3138,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3324,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3390,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3448,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3514,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3570,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3645,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3688,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3754,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3810,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3905,7 +3908,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3971,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,8 +4037,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K737"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K748" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K748"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4413,12 +4416,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K737"/>
+  <dimension ref="A2:K748"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A728" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A716" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E736" sqref="E736"/>
+      <selection pane="bottomLeft" activeCell="F731" sqref="F731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4583,7 +4586,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.0039999999998521</v>
+        <v>4.2539999999998521</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4593,7 +4596,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.0289999999999999</v>
+        <v>9.2789999999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20316,18 +20319,189 @@
         <v>45292</v>
       </c>
       <c r="B737" s="58"/>
-      <c r="C737" s="13"/>
+      <c r="C737" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D737" s="39"/>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
-      <c r="G737" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G737" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H737" s="39"/>
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="41">
+        <v>45323</v>
+      </c>
+      <c r="B738" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13"/>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="41">
+        <v>45352</v>
+      </c>
+      <c r="B739" s="58"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13"/>
+      <c r="H739" s="39"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="20"/>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="41">
+        <v>45383</v>
+      </c>
+      <c r="B740" s="58"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39"/>
+      <c r="E740" s="9"/>
+      <c r="F740" s="20"/>
+      <c r="G740" s="13"/>
+      <c r="H740" s="39"/>
+      <c r="I740" s="9"/>
+      <c r="J740" s="11"/>
+      <c r="K740" s="20"/>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="41">
+        <v>45413</v>
+      </c>
+      <c r="B741" s="58"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="39"/>
+      <c r="E741" s="9"/>
+      <c r="F741" s="20"/>
+      <c r="G741" s="13"/>
+      <c r="H741" s="39"/>
+      <c r="I741" s="9"/>
+      <c r="J741" s="11"/>
+      <c r="K741" s="20"/>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="41">
+        <v>45444</v>
+      </c>
+      <c r="B742" s="58"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="39"/>
+      <c r="E742" s="9"/>
+      <c r="F742" s="20"/>
+      <c r="G742" s="13"/>
+      <c r="H742" s="39"/>
+      <c r="I742" s="9"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="20"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="41">
+        <v>45474</v>
+      </c>
+      <c r="B743" s="58"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="39"/>
+      <c r="E743" s="9"/>
+      <c r="F743" s="20"/>
+      <c r="G743" s="13"/>
+      <c r="H743" s="39"/>
+      <c r="I743" s="9"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="20"/>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="41">
+        <v>45505</v>
+      </c>
+      <c r="B744" s="58"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="39"/>
+      <c r="E744" s="9"/>
+      <c r="F744" s="20"/>
+      <c r="G744" s="13"/>
+      <c r="H744" s="39"/>
+      <c r="I744" s="9"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="20"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="41">
+        <v>45536</v>
+      </c>
+      <c r="B745" s="58"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="39"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="20"/>
+      <c r="G745" s="13"/>
+      <c r="H745" s="39"/>
+      <c r="I745" s="9"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="20"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="41">
+        <v>45566</v>
+      </c>
+      <c r="B746" s="58"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="39"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="20"/>
+      <c r="G746" s="13"/>
+      <c r="H746" s="39"/>
+      <c r="I746" s="9"/>
+      <c r="J746" s="11"/>
+      <c r="K746" s="20"/>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="41">
+        <v>45597</v>
+      </c>
+      <c r="B747" s="58"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="39"/>
+      <c r="E747" s="9"/>
+      <c r="F747" s="20"/>
+      <c r="G747" s="13"/>
+      <c r="H747" s="39"/>
+      <c r="I747" s="9"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="20"/>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="41">
+        <v>45627</v>
+      </c>
+      <c r="B748" s="58"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="39"/>
+      <c r="E748" s="9"/>
+      <c r="F748" s="20"/>
+      <c r="G748" s="13"/>
+      <c r="H748" s="39"/>
+      <c r="I748" s="9"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20373,7 +20547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
